--- a/GoogleLinks.xlsx
+++ b/GoogleLinks.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,63 +390,759 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>cats on Twitter</v>
+        <v>Dog - Wikipedia</v>
       </c>
       <c r="B2" t="str">
-        <v>https://twitter.com/search?q=cats&amp;ref_src=twsrc%5Egoogle%7Ctwcamp%5Eserp%7Ctwgr%5Esearch</v>
+        <v>https://en.wikipedia.org/wiki/Dog</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cat - Wikipedia</v>
+        <v>List of Dog Breeds | Petfinder</v>
       </c>
       <c r="B3" t="str">
-        <v>https://en.wikipedia.org/wiki/Cat</v>
+        <v>https://www.petfinder.com/dog-breeds/</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Cats (2019) - IMDb</v>
+        <v>Dog, facts and photos - National Geographic</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.imdb.com/title/tt5697572/</v>
+        <v>https://www.nationalgeographic.com/animals/mammals/facts/domestic-dog</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cat | National Geographic</v>
+        <v>Dogs | Healthy Pets, Healthy People | CDC</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.nationalgeographic.com/animals/mammals/facts/domestic-cat</v>
+        <v>https://www.cdc.gov/healthypets/pets/dogs.html</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cats | Healthy Pets, Healthy People | CDC</v>
+        <v>Dog Breeds - Types Of Dogs - American Kennel Club</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.cdc.gov/healthypets/pets/cats.html</v>
+        <v>https://www.akc.org/dog-breeds/</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>cat | Breeds &amp; Facts - Encyclopedia Britannica</v>
+        <v>Dog Breeds - Types Of Dogs - American Kennel Club</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.britannica.com/animal/cat</v>
+        <v>https://www.akc.org/dog-breeds/</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Cat Breeds | Purina® Canada</v>
+        <v>Complete Guide to Caring for Dogs - Vetstreet</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.purina.ca/cats/cat-breeds</v>
+        <v>http://www.vetstreet.com/dogs/</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Types of Dogs: All Breeds From AZ - AZ Animals</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://a-z-animals.com/pets/dogs/</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>WeRateDogs® (@dog_rates) · Twitter</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://twitter.com/dog_rates?ref_src=twsrc%5Egoogle%7Ctwcamp%5Eserp%7Ctwgr%5Eauthor</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Dog Archives - SF SPCA</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://www.sfspca.org/adoptions2/dogs/</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>All Dog Breeds - Complete List of Dog Profiles - DogTime</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://dogtime.com/dog-breeds/profiles</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Adoptable Dogs | PAWS</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://www.paws.org/adopt/dogs/</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dogs | The Humane Society of the United States</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://www.humanesociety.org/animals/dogs</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Dogs for Adoption - Providence Animal Center | Media, PA</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://providenceac.org/adopt/dogs/</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Southeastern Guide Dogs: Home</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://www.guidedogs.org/</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Dog Care | Grooming | Nutrition | Disease | Behavior | ASPCA</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://www.aspca.org/pet-care/dog-care</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Watch Dogs | Netflix Official Site</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://www.netflix.com/title/80191036</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Meet the dogs of Amazon</v>
+      </c>
+      <c r="B19" t="str">
+        <v>https://www.aboutamazon.com/news/workplace/how-much-does-amazon-love-dogs-just-ask-one-of-the-7-000-pups-that-work-here</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Dogs and Puppies - Daily Paws</v>
+      </c>
+      <c r="B20" t="str">
+        <v>https://www.dailypaws.com/dogs-puppies</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Dog Care Advice, Tips &amp; Health Information | RSPCA</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://www.rspca.org.uk/adviceandwelfare/pets/dogs</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Moose attacks Iditarod rookie's sled team near Fairbanks ...</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://www.adn.com/outdoors-adventure/2022/02/08/moose-attacks-iditarod-rookies-sled-team-near-fairbanks-injures-four-dogs/</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Dogs news &amp; latest pictures from Newsweek.com</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://www.newsweek.com/topic/dogs</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Dogs Available For Adoption - Austin Pets Alive!</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://www.austinpetsalive.org/adopt/dogs</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Dog Health Center | Dog Care and Information from WebMD</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://pets.webmd.com/dogs/default.htm</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Pet Travel - Bringing Pet Dogs into the United States - USDA ...</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://www.aphis.usda.gov/aphis/pet-travel/bring-pet-into-the-united-states/pet-travel-dogs-into-us</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Canine Companions: Home</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://canine.org/</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Dogs | Purina</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://www.purina.com/dogs</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>PetSmart: Pet Supplies, Accessories and Products Online</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://www.petsmart.com/</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Therapy Dog | Therapy Dog Organizations</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://www.therapydogs.com/</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Looking for a dog | Los Angeles Animal Services</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://www.laanimalservices.com/looking-for-a-dog/</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Assistance Dogs International</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://assistancedogsinternational.org/</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>The inner lives of dogs: what our canine friends really think ...</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://www.theguardian.com/lifeandstyle/2021/dec/09/the-inner-lives-of-dogs-canine-friends-love-lust-companions-minds</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Amazon.com: Dogs: Pet Supplies: Apparel &amp; Accessories ...</v>
+      </c>
+      <c r="B34" t="str">
+        <v>https://www.amazon.com/dogs-supplies-training-beds-collars-grooming/b?ie=UTF8&amp;node=2975312011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Dogs News - ScienceDaily</v>
+      </c>
+      <c r="B35" t="str">
+        <v>https://www.sciencedaily.com/news/plants_animals/dogs/</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Guide Dogs of America: Home</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://www.guidedogsofamerica.org/</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>GRAPHIC: Dogs found dead in pet food bags in Tri-State</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://www.fox19.com/2022/02/08/graphic-dogs-found-dead-pet-food-bags-tri-state/</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Dog Supplies: Best Dog &amp; Puppy Products (Free Shipping)</v>
+      </c>
+      <c r="B38" t="str">
+        <v>https://www.chewy.com/b/dog-288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Rover.com: Book Dog Boarding, Dog Walking and More</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://www.rover.com/</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Welcome - DOGTV: Television for Dogs</v>
+      </c>
+      <c r="B40" t="str">
+        <v>https://www.dogtv.com/</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Dog &amp; Puppy Supplies - 15% Off Curbside Pickup | Petco</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://www.petco.com/shop/en/petcostore/category/dog</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>dog | History, Domestication, Physical Traits, Breeds, &amp; Facts</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://www.britannica.com/animal/dog</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>America's VetDogs: Service Dogs for Veterans Charity in NY</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://www.vetdogs.org/</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Licensing Your Dog | Maricopa County, AZ</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://www.maricopa.gov/226/Dog-License</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>The Chicago Dogs--Chicago's Independent Professional ...</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://thechicagodogs.com/</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Moose attacks Iditarod sled team, seriously injuring 4 dogs</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://www.cbsnews.com/news/moose-attacks-iditarod-sled-team-4-dogs-injured-bridgett-watkins/</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Dog Adoption | Kansas Humane Society | Animal Shelter</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://www.kshumane.org/adopt/dogs.html</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Dogs On Deployments: Home</v>
+      </c>
+      <c r="B48" t="str">
+        <v>https://www.dogsondeployment.org/</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>An open science study of ageing in companion dogs | Nature</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://www.nature.com/articles/s41586-021-04282-9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Answering the Call of the Wild With a Dog-Sled Trek</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://www.nytimes.com/2022/02/08/travel/dog-sledding-maine.html</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Giant moose tramples dog sled team in Alaska for almost an ...</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://news.yahoo.com/giant-moose-tramples-dog-sled-182028294.html</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Home - Guide Dogs of the Desert | California</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://guidedogsofthedesert.org/</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Moose attacks Iditarod rookie's sled team, injures 4 dogs</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://apnews.com/1ea89154bc1a8ef0a09ca60e8f87e373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>How dogs contribute to your health and happiness ...</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://www.medicalnewstoday.com/articles/322868</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>40 Best Medium Sized Dog Breeds - Good Housekeeping</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://www.goodhousekeeping.com/life/pets/advice/g1825/medium-sized-dogs/</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Moose attacks Iditarod rookie's sled ... - Alaska's News Source</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://www.alaskasnewssource.com/2022/02/09/moose-attacks-iditarod-rookies-sled-team-injures-4-dogs/</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Assistance Dog Special Allowance Program - California ...</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://www.cdss.ca.gov/assistance-dogs</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>30 dogs rescued from East Aurora home - WKBW</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://www.wkbw.com/news/local-news/30-dogs-rescued-from-east-aurora-home</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Nutrient fertilization by dogs in peri‐urban ecosystems</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://besjournals.onlinelibrary.wiley.com/doi/10.1002/2688-8319.12128</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Their unleashed dogs killed her Yorkie. Now, Saints owner ...</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://www.nola.com/news/courts/article_eda4dc3a-8911-11ec-8a58-dbe194e70444.html</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>current status and implications for human 'self-domestication'</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://www.cell.com/trends/cognitive-sciences/fulltext/S1364-6613(22)00018-3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Moose attacks Iditarod rookie's sled team, injures 4 dogs</v>
+      </c>
+      <c r="B62" t="str">
+        <v>https://abcnews.go.com/Sports/wireStory/moose-attacks-iditarod-rookies-sled-team-injures-dogs-82754186</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Isle of Dogs - Premium dog products that promote health and ...</v>
+      </c>
+      <c r="B63" t="str">
+        <v>https://iodogs.com/</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Welcome to Leader Dogs for the Blind |</v>
+      </c>
+      <c r="B64" t="str">
+        <v>https://www.leaderdog.org/</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Guide Dogs for the Blind</v>
+      </c>
+      <c r="B65" t="str">
+        <v>https://www.guidedogs.com/</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Portland Sea Dogs | MiLB.com</v>
+      </c>
+      <c r="B66" t="str">
+        <v>https://www.milb.com/portland</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Frequently Asked Questions about Service Animals and the ADA</v>
+      </c>
+      <c r="B67" t="str">
+        <v>https://www.ada.gov/regs2010/service_animal_qa.html</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Dogs recovering after being found living in squalor at a Cape ...</v>
+      </c>
+      <c r="B68" t="str">
+        <v>https://www.winknews.com/2022/02/08/dogs-recovering-after-being-found-living-in-squalor-at-a-cape-coral-home/</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>#dogs Hashtag Videos on TikTok</v>
+      </c>
+      <c r="B69" t="str">
+        <v>https://www.tiktok.com/tag/dogs?lang=en</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Dogs: The Complete Guide to Pet Care</v>
+      </c>
+      <c r="B70" t="str">
+        <v>https://www.thesprucepets.com/dogs-4162034</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Watch Dogs: Legion on PS4, Xbox One, PC, Stadia - Ubisoft</v>
+      </c>
+      <c r="B71" t="str">
+        <v>https://www.ubisoft.com/en-us/game/watch-dogs/legion</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Adoptable Dogs - Kentucky Humane Society</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://www.kyhumane.org/adopt/dogs/</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Animals: All about dogs and different breeds - Ducksters</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://www.ducksters.com/animals/dogs.php</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Moose attacks, tramples Iditarod team, leaves four sled dogs</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.nydailynews.com/news/national/ny-moose-attacks-iditarod-team-sled-dogs-injured-20220209-7ftnrl2yrrckvloxx5llhpczre-story.html</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>May I have a word: That curious thing dogs do - The Boston ...</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://www.bostonglobe.com/2022/02/08/opinion/may-i-have-word-that-curious-thing-dogs-do/</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Dogs and Cats Emergency &amp; Specialty | Bowie, MD</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://www.dcvetreferral.com/</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>How dogs stole our hearts | Science | AAAS</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://www.science.org/content/article/how-dogs-stole-our-hearts</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Dat Dog</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://www.datdog.com/</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Dog Aging Project: Home</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://dogagingproject.org/</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Dog Haus</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://doghaus.com/</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Signs Your Dog Is Stressed And How To Relieve It - VCA ...</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://vcahospitals.com/know-your-pet/signs-your-dog-is-stressed-and-how-to-relieve-it</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>A New Origin Story for Dogs - The Atlantic</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://www.theatlantic.com/science/archive/2016/06/the-origin-of-dogs/484976/</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>NEADS World Class Service Dogs: Home</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://neads.org/</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Animal Resources &amp; Care Resumes Adoption of Shelter Dogs</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://alachuacounty.us/news/Article/Pages/Animal-Resources--Care-Resumes-Adoption-of-Shelter-Dogs.aspx</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Pet Partners Therapy Dogs &amp; Other Therapy Animals</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://petpartners.org/</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Guide Dog Foundation | Home</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://www.guidedog.org/</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Dog bite prevention | American Veterinary Medical Association</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://www.avma.org/resources-tools/pet-owners/dog-bite-prevention</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>The eccentric dog breeds that vanished - BBC Future</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://www.bbc.com/future/article/20211105-the-bizarre-dog-breeds-time-forgot</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Paradise Police investigate animal neglect after starving dogs ...</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://www.actionnewsnow.com/news/paradise-police-investigate-animal-neglect-after-starving-dogs-discovered-on-vacant-property/article_a7a301ec-89a4-11ec-9e81-53acbe9635fe.html</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Moose attacks Iditarod rookie's sled team, injures 4 dogs</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://wtop.com/animals-pets/2022/02/moose-attacks-iditarod-rookies-sled-team-injures-4-dogs/</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Alaska moose attack against Iditarod sled team leaves 4 dogs</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://www.foxnews.com/lifestyle/alaska-moose-attack-iditarod-sled-team-dogs-injured</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Adopt a Dog | Bedford New Hampshire - Animal Rescue ...</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://www.rescueleague.org/dogs</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Adopt-A-Dog Month® - American Humane</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://www.americanhumane.org/initiative/adopt-a-dog-month/</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>No Dogs Left Behind: Asia Dog Meat Trade Rescue | Dog ...</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://nodogsleftbehind.com/</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>What animal welfare problems are associated with dog ...</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://kb.rspca.org.au/knowledge-base/what-animal-welfare-problems-are-associated-with-dog-breeding/</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B95"/>
   </ignoredErrors>
 </worksheet>
 </file>